--- a/results/FrequencyTables/26796669_gLTR2.xlsx
+++ b/results/FrequencyTables/26796669_gLTR2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.0153508771929825</v>
       </c>
       <c r="C2">
-        <v>0.96</v>
+        <v>0.959429824561403</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.0109649122807018</v>
       </c>
       <c r="E2">
-        <v>0.83</v>
+        <v>0.766447368421053</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.025219298245614</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.00657894736842105</v>
       </c>
       <c r="H2">
-        <v>0.03</v>
+        <v>0.0219298245614035</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.860745614035088</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.00767543859649123</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00328947368421053</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.0328947368421053</v>
       </c>
       <c r="M2">
-        <v>0.91</v>
+        <v>0.893640350877193</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00328947368421053</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00548245614035088</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
       <c r="U2">
-        <v>0.91</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.00657894736842105</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.00548245614035088</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.0274122807017544</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="F3">
-        <v>0.16</v>
+        <v>0.155701754385965</v>
       </c>
       <c r="G3">
-        <v>0.94</v>
+        <v>0.967105263157895</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.978070175438597</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>0.106359649122807</v>
       </c>
       <c r="J3">
-        <v>0.91</v>
+        <v>0.923245614035088</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="N3">
-        <v>0.86</v>
+        <v>0.866228070175439</v>
       </c>
       <c r="O3">
-        <v>0.98</v>
+        <v>0.966008771929825</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.0317982456140351</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.018640350877193</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0043859649122807</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.00657894736842105</v>
       </c>
       <c r="W3">
-        <v>0.04</v>
+        <v>0.025219298245614</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97</v>
+        <v>0.975877192982456</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00109649122807018</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0241228070175439</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.0307017543859649</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0043859649122807</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
       <c r="L4">
-        <v>0.95</v>
+        <v>0.957236842105263</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00328947368421053</v>
       </c>
       <c r="N4">
-        <v>0.11</v>
+        <v>0.121710526315789</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -658,28 +658,28 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>0.00548245614035088</v>
       </c>
       <c r="R4">
-        <v>0.05</v>
+        <v>0.0230263157894737</v>
       </c>
       <c r="S4">
-        <v>0.99</v>
+        <v>0.990131578947368</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.989035087719298</v>
       </c>
       <c r="U4">
-        <v>0.04</v>
+        <v>0.110745614035088</v>
       </c>
       <c r="V4">
-        <v>0.03</v>
+        <v>0.0241228070175439</v>
       </c>
       <c r="W4">
-        <v>0.95</v>
+        <v>0.964912280701754</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>0.964912280701754</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.00767543859649123</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.00548245614035088</v>
       </c>
       <c r="D5">
-        <v>0.94</v>
+        <v>0.960526315789474</v>
       </c>
       <c r="E5">
-        <v>0.11</v>
+        <v>0.18859649122807</v>
       </c>
       <c r="F5">
-        <v>0.76</v>
+        <v>0.788377192982456</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.0043859649122807</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03</v>
+        <v>0.0285087719298246</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.0690789473684211</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.984649122807018</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00986842105263158</v>
       </c>
       <c r="M5">
-        <v>0.09</v>
+        <v>0.101973684210526</v>
       </c>
       <c r="N5">
-        <v>0.03</v>
+        <v>0.0109649122807018</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>0.0317982456140351</v>
       </c>
       <c r="P5">
-        <v>0.97</v>
+        <v>0.964912280701754</v>
       </c>
       <c r="Q5">
-        <v>0.99</v>
+        <v>0.987938596491228</v>
       </c>
       <c r="R5">
-        <v>0.95</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="S5">
-        <v>0.01</v>
+        <v>0.00328947368421053</v>
       </c>
       <c r="T5">
-        <v>0.01</v>
+        <v>0.00767543859649123</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="V5">
-        <v>0.96</v>
+        <v>0.969298245614035</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00219298245614035</v>
       </c>
       <c r="X5">
-        <v>0.04</v>
+        <v>0.025219298245614</v>
       </c>
     </row>
   </sheetData>
